--- a/Result_excel.xlsx
+++ b/Result_excel.xlsx
@@ -38,6 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor rgb="FFF0E68C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF08080"/>
         <bgColor rgb="FFF08080"/>
       </patternFill>
@@ -46,12 +52,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCD5C5C"/>
         <bgColor rgb="FFCD5C5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0E68C"/>
-        <bgColor rgb="FFF0E68C"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,13 +78,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -466,46 +466,42 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Coluna C</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>Coluna B</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Coluna C</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Linha A2</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Linha B2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Linha C2</t>
-        </is>
-      </c>
+          <t>Linha A3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Linha C3</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Linha A3</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Linha B3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Linha C3</t>
+          <t>Linha A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linha C2</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Linha BB</t>
         </is>
       </c>
     </row>
@@ -517,12 +513,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Linha C4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Linha B4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Linha C4</t>
         </is>
       </c>
     </row>
